--- a/biology/Histoire de la zoologie et de la botanique/Albrecht_Wilhelm_Roth/Albrecht_Wilhelm_Roth.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Albrecht_Wilhelm_Roth/Albrecht_Wilhelm_Roth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albrecht Wilhelm Roth est un médecin et un botaniste allemand, né le 6 janvier 1757 à Dötlingen et mort le 16 octobre 1834 à Vegesack.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le onzième enfants du pasteur Gottfried Roth. Il fait ses études à l’université de Halle. Il obtient son titre de médecin en 1778 et s’installe à Vegesack. Il commence dès lors à plusieurs ses nombreuses observations de botanique et sa réputation s’élargit assez vite. Vegesack était vue comme le centre botanique le plus important de la Brème. Goethe (1749-1832) le recommande pour la chaire de botanique de l’université de Iéna. Il reçoit de nombreux spécimens botanique d’Inde de Benjamin Heyne (1769-1819)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le onzième enfants du pasteur Gottfried Roth. Il fait ses études à l’université de Halle. Il obtient son titre de médecin en 1778 et s’installe à Vegesack. Il commence dès lors à plusieurs ses nombreuses observations de botanique et sa réputation s’élargit assez vite. Vegesack était vue comme le centre botanique le plus important de la Brème. Goethe (1749-1832) le recommande pour la chaire de botanique de l’université de Iéna. Il reçoit de nombreux spécimens botanique d’Inde de Benjamin Heyne (1769-1819).
 En 1821, il nomme le genre Rohdea en hommage au botaniste Michael Rohde.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Verzeichniss derjenigen Pflanzen, welche nach der Anzahl und Beschaffenheit ihrer Geschlechtstheile nicht in den gehörigen Klassen und Ordnungen des linneischen Systems stehen (Richter, Altenbourg, 1781).
 Beyträge zur Botanik (G. L. Förster, Brême, deux volumes, 1782-1783).
@@ -581,10 +597,12 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-↑ Cf. Ralph R. Stewart (1982). Missionaries and Clergymen as Botanists in India and Pakistan, Taxon, 31 (1) : 57-64 [58].  (ISSN 0040-0262)
+↑ Cf. Ralph R. Stewart (1982). Missionaries and Clergymen as Botanists in India and Pakistan, Taxon, 31 (1) : 57-64 .  (ISSN 0040-0262)
 </t>
         </is>
       </c>
